--- a/final report/precisionRate_decision_tree.xlsx
+++ b/final report/precisionRate_decision_tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\期末報告資料處理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{AA5F8D0C-B1FA-43A6-82F1-EAF956DDE1CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136F0760-CA58-6F48-8827-3940741F0756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12165" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_decision_tree" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,99 @@
     <sheet name="通訊" sheetId="5" r:id="rId5"/>
     <sheet name="工作表5" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlchart.v1.0" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.1" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_decision_tree!$I$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.2" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_decision_tree!$I$1</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.3" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_decision_tree!$I$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.4" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">precisionRate_decision_tree!$I$1</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.5" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.6" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">precisionRate_decision_tree!$I$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.7" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_decision_tree!$I$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+  </definedNames>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -190,12 +282,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -203,7 +295,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -211,7 +303,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -220,7 +312,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -229,7 +321,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -238,7 +330,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -246,7 +338,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -254,7 +346,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -262,7 +354,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -270,7 +362,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -279,7 +371,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -288,7 +380,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -296,7 +388,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -305,7 +397,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -313,7 +405,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -322,7 +414,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -331,7 +423,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -339,14 +431,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="新細明體"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -354,7 +446,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="新細明體"/>
+      <name val="Calibri Light"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -832,9 +924,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -850,53 +939,56 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
-    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -911,8 +1003,1605 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.1</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.3</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.5</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.7</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.9</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Decision Tree</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Decision Tree</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5C753274-E762-C64B-BDBA-D0F685938D60}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DEE21EC2-221F-464B-8C28-36C4B471F4D9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{353E2876-755D-FC49-9D27-E7A7F90BCA8C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E8F5D92A-86D2-DA47-B7D0-4F8FD55C939A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E2CE8E75-73E8-BC47-8EED-9E4EE221A653}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx2.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.70</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.72</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.74</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.76</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.77</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Decision Tree</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Decision Tree</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{5C753274-E762-C64B-BDBA-D0F685938D60}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DEE21EC2-221F-464B-8C28-36C4B471F4D9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{353E2876-755D-FC49-9D27-E7A7F90BCA8C}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E8F5D92A-86D2-DA47-B7D0-4F8FD55C939A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E2CE8E75-73E8-BC47-8EED-9E4EE221A653}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f/>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0">
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US" sz="900" b="0" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:sysClr val="windowText" lastClr="000000">
+                <a:lumMod val="65000"/>
+                <a:lumOff val="35000"/>
+              </a:sysClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+          </a:endParaRPr>
+        </a:p>
+      </cx:txPr>
+    </cx:legend>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>654050</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{97C4ADC4-8FC1-E553-F42F-99D4AAC4CC4E}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6711950" y="3022600"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>279400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>127000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E969645E-A1C8-3940-98AB-634795B495A6}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="5664200" y="2362200"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1207,16 +2896,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A42" sqref="A42:X47"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" activeCellId="4" sqref="B1:B41 C1:C41 G1:G41 H1:H41 I1:I41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1290,7 +2979,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -1364,7 +3053,7 @@
         <v>4.3213695542064903E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -1438,7 +3127,7 @@
         <v>4.2630512459735703E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -1512,7 +3201,7 @@
         <v>2.6622218572849101E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -1586,7 +3275,7 @@
         <v>4.9425890916318403E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -1660,7 +3349,7 @@
         <v>1.9463728058547899E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -1734,7 +3423,7 @@
         <v>2.5547653082930801E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -1808,7 +3497,7 @@
         <v>2.5177796305629399E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -1882,7 +3571,7 @@
         <v>2.9868220948970101E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -1956,7 +3645,7 @@
         <v>3.74463628146375E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -2030,7 +3719,7 @@
         <v>3.0174491416901001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -2104,7 +3793,7 @@
         <v>2.91712838882278E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -2178,7 +3867,7 @@
         <v>2.2525618356817E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -2252,7 +3941,7 @@
         <v>7.7943762793259097E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -2326,7 +4015,7 @@
         <v>2.4909966006688398E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -2400,7 +4089,7 @@
         <v>3.3912419467748499E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -2474,7 +4163,7 @@
         <v>3.3453882424994898E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -2548,7 +4237,7 @@
         <v>4.7521409266043098E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -2622,7 +4311,7 @@
         <v>3.4104658463923201E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -2696,7 +4385,7 @@
         <v>3.75800502303806E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -2770,7 +4459,7 @@
         <v>2.0443076384060999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -2844,7 +4533,7 @@
         <v>8.1713483930065195E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -2918,7 +4607,7 @@
         <v>1.45891801634997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -2992,7 +4681,7 @@
         <v>2.7946360394450399E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -3066,7 +4755,7 @@
         <v>3.5249937914108402E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -3140,7 +4829,7 @@
         <v>2.8399404302479701E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -3214,7 +4903,7 @@
         <v>1.60744824254705E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -3288,7 +4977,7 @@
         <v>3.8355281693401098E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -3362,7 +5051,7 @@
         <v>2.8947767751073501E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -3436,7 +5125,7 @@
         <v>4.0418522011836398E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -3510,7 +5199,7 @@
         <v>2.8128069045988E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -3584,7 +5273,7 @@
         <v>3.8504594351938599E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -3658,7 +5347,7 @@
         <v>2.9820512146534299E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -3732,7 +5421,7 @@
         <v>2.0557858424537601E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -3806,7 +5495,7 @@
         <v>1.4745018757446399E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -3880,7 +5569,7 @@
         <v>3.6679341190238898E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -3954,7 +5643,7 @@
         <v>2.5478971882719501E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -4028,7 +5717,7 @@
         <v>3.0637881528908999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -4102,7 +5791,7 @@
         <v>6.95078016408546E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -4176,7 +5865,7 @@
         <v>2.3885785444078701E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -4250,7 +5939,7 @@
         <v>3.0269305532019199E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -4347,7 +6036,7 @@
         <v>1.45891801634997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -4444,7 +6133,7 @@
         <v>2.5403677988446977E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -4541,7 +6230,7 @@
         <v>3.0021356182935551E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -4638,7 +6327,7 @@
         <v>3.7773858096135725E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -4735,7 +6424,7 @@
         <v>8.1713483930065195E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -4835,20 +6524,21 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_decision_tree!A$1</f>
         <v>StockName</v>
@@ -4946,7 +6636,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_decision_tree!A$31</f>
         <v>2330</v>
@@ -5044,7 +6734,7 @@
         <v>2.8128069045988E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_decision_tree!A$12</f>
         <v>2454</v>
@@ -5142,7 +6832,7 @@
         <v>2.91712838882278E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_decision_tree!A$28</f>
         <v>3034</v>
@@ -5240,7 +6930,7 @@
         <v>3.8355281693401098E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_decision_tree!A$18</f>
         <v>2379</v>
@@ -5338,7 +7028,7 @@
         <v>4.7521409266043098E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_decision_tree!A$25</f>
         <v>2408</v>
@@ -5436,7 +7126,7 @@
         <v>3.5249937914108402E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_decision_tree!A$4</f>
         <v>2344</v>
@@ -5534,7 +7224,7 @@
         <v>2.6622218572849101E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_decision_tree!A$37</f>
         <v>2337</v>
@@ -5632,7 +7322,7 @@
         <v>2.5478971882719501E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_decision_tree!A$35</f>
         <v>3035</v>
@@ -5730,7 +7420,7 @@
         <v>1.4745018757446399E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_decision_tree!A$5</f>
         <v>2449</v>
@@ -5828,7 +7518,7 @@
         <v>4.9425890916318403E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_decision_tree!A$33</f>
         <v>2468</v>
@@ -5926,7 +7616,7 @@
         <v>2.9820512146534299E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -6023,7 +7713,7 @@
         <v>1.4745018757446399E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -6120,7 +7810,7 @@
         <v>2.6998681191133828E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -6217,7 +7907,7 @@
         <v>2.9495898017381048E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -6314,7 +8004,7 @@
         <v>3.7578945748577924E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -6411,7 +8101,7 @@
         <v>4.9425890916318403E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -6515,16 +8205,16 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_decision_tree!A$1</f>
         <v>StockName</v>
@@ -6622,7 +8312,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_decision_tree!A$16</f>
         <v>1216</v>
@@ -6720,7 +8410,7 @@
         <v>3.3912419467748499E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_decision_tree!A$36</f>
         <v>1229</v>
@@ -6818,7 +8508,7 @@
         <v>3.6679341190238898E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_decision_tree!A$17</f>
         <v>1434</v>
@@ -6916,7 +8606,7 @@
         <v>3.3453882424994898E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_decision_tree!A$30</f>
         <v>1227</v>
@@ -7014,7 +8704,7 @@
         <v>4.0418522011836398E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_decision_tree!A$2</f>
         <v>1210</v>
@@ -7112,7 +8802,7 @@
         <v>4.3213695542064903E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_decision_tree!A$10</f>
         <v>1232</v>
@@ -7210,7 +8900,7 @@
         <v>3.74463628146375E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_decision_tree!A$9</f>
         <v>1215</v>
@@ -7308,7 +8998,7 @@
         <v>2.9868220948970101E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_decision_tree!A$3</f>
         <v>1231</v>
@@ -7406,7 +9096,7 @@
         <v>4.2630512459735703E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_decision_tree!A$23</f>
         <v>1218</v>
@@ -7504,7 +9194,7 @@
         <v>1.45891801634997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_decision_tree!A$24</f>
         <v>1702</v>
@@ -7602,7 +9292,7 @@
         <v>2.7946360394450399E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -7699,7 +9389,7 @@
         <v>1.45891801634997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -7796,7 +9486,7 @@
         <v>3.07646363179763E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -7893,7 +9583,7 @@
         <v>3.5295880328993695E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -7990,7 +9680,7 @@
         <v>3.9675482212536674E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -8087,7 +9777,7 @@
         <v>4.3213695542064903E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -8191,16 +9881,16 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_decision_tree!A$1</f>
         <v>StockName</v>
@@ -8298,7 +9988,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_decision_tree!A$6</f>
         <v>2603</v>
@@ -8396,7 +10086,7 @@
         <v>1.9463728058547899E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_decision_tree!A$20</f>
         <v>2609</v>
@@ -8494,7 +10184,7 @@
         <v>3.75800502303806E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_decision_tree!A$34</f>
         <v>2615</v>
@@ -8592,7 +10282,7 @@
         <v>2.0557858424537601E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_decision_tree!A$40</f>
         <v>2618</v>
@@ -8690,7 +10380,7 @@
         <v>2.3885785444078701E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_decision_tree!A$27</f>
         <v>2610</v>
@@ -8788,7 +10478,7 @@
         <v>1.60744824254705E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_decision_tree!A$21</f>
         <v>2637</v>
@@ -8886,7 +10576,7 @@
         <v>2.0443076384060999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_decision_tree!A$7</f>
         <v>2633</v>
@@ -8984,7 +10674,7 @@
         <v>2.5547653082930801E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_decision_tree!A$26</f>
         <v>2459</v>
@@ -9082,7 +10772,7 @@
         <v>2.8399404302479701E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_decision_tree!A$13</f>
         <v>2607</v>
@@ -9180,7 +10870,7 @@
         <v>2.2525618356817E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_decision_tree!A$14</f>
         <v>2634</v>
@@ -9278,7 +10968,7 @@
         <v>7.7943762793259097E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -9375,7 +11065,7 @@
         <v>1.60744824254705E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -9472,7 +11162,7 @@
         <v>2.047177189418015E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -9569,7 +11259,7 @@
         <v>2.320570190044785E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -9666,7 +11356,7 @@
         <v>2.7686466497592474E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -9763,7 +11453,7 @@
         <v>7.7943762793259097E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -9867,16 +11557,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:X17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A1" t="str">
         <f>precisionRate_decision_tree!A$1</f>
         <v>StockName</v>
@@ -9974,7 +11664,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A2">
         <f>precisionRate_decision_tree!A$32</f>
         <v>2412</v>
@@ -10072,7 +11762,7 @@
         <v>3.8504594351938599E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A3">
         <f>precisionRate_decision_tree!A$41</f>
         <v>3045</v>
@@ -10170,7 +11860,7 @@
         <v>3.0269305532019199E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A4">
         <f>precisionRate_decision_tree!A$22</f>
         <v>4904</v>
@@ -10268,7 +11958,7 @@
         <v>8.1713483930065195E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A5">
         <f>precisionRate_decision_tree!A$11</f>
         <v>2345</v>
@@ -10366,7 +12056,7 @@
         <v>3.0174491416901001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A6">
         <f>precisionRate_decision_tree!A$39</f>
         <v>2498</v>
@@ -10464,7 +12154,7 @@
         <v>6.95078016408546E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A7">
         <f>precisionRate_decision_tree!A$8</f>
         <v>3596</v>
@@ -10562,7 +12252,7 @@
         <v>2.5177796305629399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A8">
         <f>precisionRate_decision_tree!A$15</f>
         <v>3682</v>
@@ -10660,7 +12350,7 @@
         <v>2.4909966006688398E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A9">
         <f>precisionRate_decision_tree!A$29</f>
         <v>5388</v>
@@ -10758,7 +12448,7 @@
         <v>2.8947767751073501E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A10">
         <f>precisionRate_decision_tree!A$19</f>
         <v>2455</v>
@@ -10856,7 +12546,7 @@
         <v>3.4104658463923201E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A11">
         <f>precisionRate_decision_tree!A$38</f>
         <v>2439</v>
@@ -10954,7 +12644,7 @@
         <v>3.0637881528908999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -11051,7 +12741,7 @@
         <v>2.4909966006688398E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -11148,7 +12838,7 @@
         <v>2.9254448667530377E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -11245,7 +12935,7 @@
         <v>3.0453593530464097E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -11342,7 +13032,7 @@
         <v>3.7404610379934748E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -11439,7 +13129,7 @@
         <v>8.1713483930065195E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -11543,428 +13233,428 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+      <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4" t="s">
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
+      <c r="E1" s="9"/>
+      <c r="F1" s="9"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="4" t="s">
+      <c r="K1" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="4" t="s">
+      <c r="M1" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="4" t="s">
+      <c r="N1" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="4" t="s">
+      <c r="O1" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="4"/>
-      <c r="B2" s="4" t="s">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <f>precisionRate_decision_tree!B42</f>
         <v>0.48148148148148101</v>
       </c>
-      <c r="K2" s="5">
+      <c r="K2" s="4">
         <f>precisionRate_decision_tree!C42</f>
         <v>0.65151515151515105</v>
       </c>
-      <c r="L2" s="5">
+      <c r="L2" s="4">
         <f>precisionRate_decision_tree!G42</f>
         <v>0.55555555555555503</v>
       </c>
-      <c r="M2" s="5">
+      <c r="M2" s="4">
         <f>precisionRate_decision_tree!H42</f>
         <v>0.56701030927835006</v>
       </c>
-      <c r="N2" s="5">
+      <c r="N2" s="4">
         <f>precisionRate_decision_tree!E42</f>
         <v>0.63793856059365905</v>
       </c>
-      <c r="O2" s="5">
+      <c r="O2" s="4">
         <f>precisionRate_decision_tree!V42</f>
         <v>0.28732235996718802</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3" s="5">
         <f>半導體!$B$12</f>
         <v>0.61904761904761896</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="5">
         <f>半導體!$B$13</f>
         <v>0.67670221493027027</v>
       </c>
-      <c r="D3" s="6">
+      <c r="D3" s="5">
         <f>半導體!$B$14</f>
         <v>0.72806768765362007</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="5">
         <f>半導體!$B$15</f>
         <v>0.76053180396246023</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="5">
         <f>半導體!$B$16</f>
         <v>0.79347826086956497</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <f>precisionRate_decision_tree!B43</f>
         <v>0.68403948001925796</v>
       </c>
-      <c r="K3" s="5">
+      <c r="K3" s="4">
         <f>precisionRate_decision_tree!C43</f>
         <v>0.76484327908378469</v>
       </c>
-      <c r="L3" s="5">
+      <c r="L3" s="4">
         <f>precisionRate_decision_tree!G43</f>
         <v>0.70256572695597019</v>
       </c>
-      <c r="M3" s="5">
+      <c r="M3" s="4">
         <f>precisionRate_decision_tree!H43</f>
         <v>0.74553001277139153</v>
       </c>
-      <c r="N3" s="5">
+      <c r="N3" s="4">
         <f>precisionRate_decision_tree!E43</f>
         <v>0.73922878701220074</v>
       </c>
-      <c r="O3" s="5">
+      <c r="O3" s="4">
         <f>precisionRate_decision_tree!V43</f>
         <v>0.48055500232320975</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4" s="5">
         <f>食品!$B$12</f>
         <v>0.50406504065040603</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <f>食品!$B$13</f>
         <v>0.62899665313679398</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <f>食品!$B$14</f>
         <v>0.730803571428571</v>
       </c>
-      <c r="E4" s="6">
+      <c r="E4" s="5">
         <f>食品!$B$15</f>
         <v>0.78588154269972377</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="5">
         <f>食品!$B$16</f>
         <v>0.80327868852458995</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="J4" s="5">
+      <c r="J4" s="4">
         <f>precisionRate_decision_tree!B44</f>
         <v>0.73449612403100706</v>
       </c>
-      <c r="K4" s="5">
+      <c r="K4" s="4">
         <f>precisionRate_decision_tree!C44</f>
         <v>0.81185526419403042</v>
       </c>
-      <c r="L4" s="5">
+      <c r="L4" s="4">
         <f>precisionRate_decision_tree!G44</f>
         <v>0.76474390544200899</v>
       </c>
-      <c r="M4" s="5">
+      <c r="M4" s="4">
         <f>precisionRate_decision_tree!H44</f>
         <v>0.79703926196095198</v>
       </c>
-      <c r="N4" s="5">
+      <c r="N4" s="4">
         <f>precisionRate_decision_tree!E44</f>
         <v>0.76939926715736251</v>
       </c>
-      <c r="O4" s="5">
+      <c r="O4" s="4">
         <f>precisionRate_decision_tree!V44</f>
         <v>0.54831351688845209</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5" s="5">
         <f>航運!$B$12</f>
         <v>0.48148148148148101</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <f>航運!$B$13</f>
         <v>0.67635039090262949</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <f>航運!$B$14</f>
         <v>0.72398992495116654</v>
       </c>
-      <c r="E5" s="6">
+      <c r="E5" s="5">
         <f>航運!$B$15</f>
         <v>0.76454330974047768</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="5">
         <f>航運!$B$16</f>
         <v>0.82758620689655105</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="J5" s="5">
+      <c r="J5" s="4">
         <f>precisionRate_decision_tree!B45</f>
         <v>0.79003623188405725</v>
       </c>
-      <c r="K5" s="5">
+      <c r="K5" s="4">
         <f>precisionRate_decision_tree!C45</f>
         <v>0.85611263736263665</v>
       </c>
-      <c r="L5" s="5">
+      <c r="L5" s="4">
         <f>precisionRate_decision_tree!G45</f>
         <v>0.79709791488842774</v>
       </c>
-      <c r="M5" s="5">
+      <c r="M5" s="4">
         <f>precisionRate_decision_tree!H45</f>
         <v>0.81966042526182126</v>
       </c>
-      <c r="N5" s="5">
+      <c r="N5" s="4">
         <f>precisionRate_decision_tree!E45</f>
         <v>0.79479115149296675</v>
       </c>
-      <c r="O5" s="5">
+      <c r="O5" s="4">
         <f>precisionRate_decision_tree!V45</f>
         <v>0.59312765402518153</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7" t="s">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <f>通訊!$B$12</f>
         <v>0.55414012738853502</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <f>通訊!$B$13</f>
         <v>0.71371158392434952</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="7">
         <f>通訊!$B$14</f>
         <v>0.78643748528372903</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="7">
         <f>通訊!$B$15</f>
         <v>0.82017977898729977</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="7">
         <f>通訊!$B$16</f>
         <v>0.86991869918699105</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="J6" s="5">
+      <c r="J6" s="4">
         <f>precisionRate_decision_tree!B46</f>
         <v>0.86991869918699105</v>
       </c>
-      <c r="K6" s="5">
+      <c r="K6" s="4">
         <f>precisionRate_decision_tree!C46</f>
         <v>0.94557823129251695</v>
       </c>
-      <c r="L6" s="5">
+      <c r="L6" s="4">
         <f>precisionRate_decision_tree!G46</f>
         <v>0.91666666666666596</v>
       </c>
-      <c r="M6" s="5">
+      <c r="M6" s="4">
         <f>precisionRate_decision_tree!H46</f>
         <v>0.89839572192513295</v>
       </c>
-      <c r="N6" s="5">
+      <c r="N6" s="4">
         <f>precisionRate_decision_tree!E46</f>
         <v>0.86788617886178798</v>
       </c>
-      <c r="O6" s="5">
+      <c r="O6" s="4">
         <f>precisionRate_decision_tree!V46</f>
         <v>0.72929346118649996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
-      <c r="J7" s="9"/>
-      <c r="K7" s="9"/>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4" t="s">
+      <c r="B7" s="9"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="J7" s="8"/>
+      <c r="K7" s="8"/>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B9" s="6">
+      <c r="B9" s="5">
         <f>半導體!$C$12</f>
         <v>0.75789473684210495</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <f>半導體!$C$13</f>
         <v>0.79588578726509751</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9" s="5">
         <f>半導體!$C$14</f>
         <v>0.81805907172995751</v>
       </c>
-      <c r="E9" s="6">
+      <c r="E9" s="5">
         <f>半導體!$C$15</f>
         <v>0.84872347480106025</v>
       </c>
-      <c r="F9" s="6">
+      <c r="F9" s="5">
         <f>半導體!$C$16</f>
         <v>0.87222222222222201</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B10" s="6">
+      <c r="B10" s="5">
         <f>食品!$C$12</f>
         <v>0.72307692307692295</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <f>食品!$C$13</f>
         <v>0.8098995593200935</v>
       </c>
-      <c r="D10" s="6">
+      <c r="D10" s="5">
         <f>食品!$C$14</f>
         <v>0.86553672316384156</v>
       </c>
-      <c r="E10" s="6">
+      <c r="E10" s="5">
         <f>食品!$C$15</f>
         <v>0.88002120758482993</v>
       </c>
-      <c r="F10" s="6">
+      <c r="F10" s="5">
         <f>食品!$C$16</f>
         <v>0.94557823129251695</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B11" s="6">
+      <c r="B11" s="5">
         <f>航運!$C$12</f>
         <v>0.65151515151515105</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11" s="5">
         <f>航運!$C$13</f>
         <v>0.74820675105485202</v>
       </c>
-      <c r="D11" s="6">
+      <c r="D11" s="5">
         <f>航運!$C$14</f>
         <v>0.76455026455026398</v>
       </c>
-      <c r="E11" s="6">
+      <c r="E11" s="5">
         <f>航運!$C$15</f>
         <v>0.81504041458792575</v>
       </c>
-      <c r="F11" s="6">
+      <c r="F11" s="5">
         <f>航運!$C$16</f>
         <v>0.82706766917293195</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <f>通訊!$C$12</f>
         <v>0.71084337349397497</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <f>通訊!$C$13</f>
         <v>0.74145569620253116</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <f>通訊!$C$14</f>
         <v>0.78415084388185607</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <f>通訊!$C$15</f>
         <v>0.82181974651854106</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <f>通訊!$C$16</f>
         <v>0.86585365853658502</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -11974,125 +13664,125 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="4"/>
-      <c r="B14" s="4" t="s">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F14" s="4" t="s">
+      <c r="F14" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B15" s="6">
+      <c r="B15" s="5">
         <f>半導體!$G$12</f>
         <v>0.58558558558558504</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <f>半導體!$G$13</f>
         <v>0.67629928315412102</v>
       </c>
-      <c r="D15" s="6">
+      <c r="D15" s="5">
         <f>半導體!$G$14</f>
         <v>0.76417742841100456</v>
       </c>
-      <c r="E15" s="6">
+      <c r="E15" s="5">
         <f>半導體!$G$15</f>
         <v>0.78460526315789447</v>
       </c>
-      <c r="F15" s="6">
+      <c r="F15" s="5">
         <f>半導體!$G$16</f>
         <v>0.79856115107913594</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B16" s="6">
+      <c r="B16" s="5">
         <f>食品!$G$12</f>
         <v>0.64583333333333304</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <f>食品!$G$13</f>
         <v>0.72934744880249847</v>
       </c>
-      <c r="D16" s="6">
+      <c r="D16" s="5">
         <f>食品!$G$14</f>
         <v>0.80538473076346151</v>
       </c>
-      <c r="E16" s="6">
+      <c r="E16" s="5">
         <f>食品!$G$15</f>
         <v>0.85257543937216673</v>
       </c>
-      <c r="F16" s="6">
+      <c r="F16" s="5">
         <f>食品!$G$16</f>
         <v>0.91666666666666596</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B17" s="6">
+      <c r="B17" s="5">
         <f>航運!$G$12</f>
         <v>0.55555555555555503</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <f>航運!$G$13</f>
         <v>0.69202057067020495</v>
       </c>
-      <c r="D17" s="6">
+      <c r="D17" s="5">
         <f>航運!$G$14</f>
         <v>0.74015244768487798</v>
       </c>
-      <c r="E17" s="6">
+      <c r="E17" s="5">
         <f>航運!$G$15</f>
         <v>0.77074017885659496</v>
       </c>
-      <c r="F17" s="6">
+      <c r="F17" s="5">
         <f>航運!$G$16</f>
         <v>0.78030303030303005</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="7" t="s">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B18" s="8">
+      <c r="B18" s="7">
         <f>通訊!$G$12</f>
         <v>0.68831168831168799</v>
       </c>
-      <c r="C18" s="8">
+      <c r="C18" s="7">
         <f>通訊!$G$13</f>
         <v>0.72705682782018577</v>
       </c>
-      <c r="D18" s="8">
+      <c r="D18" s="7">
         <f>通訊!$G$14</f>
         <v>0.76489106814509356</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="7">
         <f>通訊!$G$15</f>
         <v>0.82554171180931679</v>
       </c>
-      <c r="F18" s="8">
+      <c r="F18" s="7">
         <f>通訊!$G$16</f>
         <v>0.90677966101694896</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -12102,125 +13792,125 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="4"/>
-      <c r="B20" s="4" t="s">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20" s="3"/>
+      <c r="B20" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B21" s="6">
+      <c r="B21" s="5">
         <f>半導體!$H$12</f>
         <v>0.69696969696969702</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21" s="5">
         <f>半導體!$H$13</f>
         <v>0.78373071528751748</v>
       </c>
-      <c r="D21" s="6">
+      <c r="D21" s="5">
         <f>半導體!$H$14</f>
         <v>0.80379867046533704</v>
       </c>
-      <c r="E21" s="6">
+      <c r="E21" s="5">
         <f>半導體!$H$15</f>
         <v>0.82311712995961028</v>
       </c>
-      <c r="F21" s="6">
+      <c r="F21" s="5">
         <f>半導體!$H$16</f>
         <v>0.89839572192513295</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="4" t="s">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="6">
+      <c r="B22" s="5">
         <f>食品!$H$12</f>
         <v>0.65340909090909005</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22" s="5">
         <f>食品!$H$13</f>
         <v>0.72508658008658</v>
       </c>
-      <c r="D22" s="6">
+      <c r="D22" s="5">
         <f>食品!$H$14</f>
         <v>0.79940398584466354</v>
       </c>
-      <c r="E22" s="6">
+      <c r="E22" s="5">
         <f>食品!$H$15</f>
         <v>0.82830365510777848</v>
       </c>
-      <c r="F22" s="6">
+      <c r="F22" s="5">
         <f>食品!$H$16</f>
         <v>0.86440677966101698</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B23" s="6">
+      <c r="B23" s="5">
         <f>航運!$H$12</f>
         <v>0.56701030927835006</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23" s="5">
         <f>航運!$H$13</f>
         <v>0.74019176636171624</v>
       </c>
-      <c r="D23" s="6">
+      <c r="D23" s="5">
         <f>航運!$H$14</f>
         <v>0.760114933602547</v>
       </c>
-      <c r="E23" s="6">
+      <c r="E23" s="5">
         <f>航運!$H$15</f>
         <v>0.79579244721974352</v>
       </c>
-      <c r="F23" s="6">
+      <c r="F23" s="5">
         <f>航運!$H$16</f>
         <v>0.83750000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="7" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="8">
+      <c r="B24" s="7">
         <f>通訊!$H$12</f>
         <v>0.585798816568047</v>
       </c>
-      <c r="C24" s="8">
+      <c r="C24" s="7">
         <f>通訊!$H$13</f>
         <v>0.75066137566137503</v>
       </c>
-      <c r="D24" s="8">
+      <c r="D24" s="7">
         <f>通訊!$H$14</f>
         <v>0.79873417721518947</v>
       </c>
-      <c r="E24" s="8">
+      <c r="E24" s="7">
         <f>通訊!$H$15</f>
         <v>0.82657200811359</v>
       </c>
-      <c r="F24" s="8">
+      <c r="F24" s="7">
         <f>通訊!$H$16</f>
         <v>0.84905660377358405</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
@@ -12230,120 +13920,120 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="4"/>
-      <c r="B26" s="4" t="s">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26" s="3"/>
+      <c r="B26" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="F26" s="4" t="s">
+      <c r="F26" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="4" t="s">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="B27" s="6">
+      <c r="B27" s="5">
         <f>半導體!$D$12</f>
         <v>0.70847457627118604</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27" s="5">
         <f>半導體!$D$13</f>
         <v>0.76550501556554773</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="5">
         <f>半導體!$D$14</f>
         <v>0.79286867289288554</v>
       </c>
-      <c r="E27" s="6">
+      <c r="E27" s="5">
         <f>半導體!$D$15</f>
         <v>0.80423728813559303</v>
       </c>
-      <c r="F27" s="6">
+      <c r="F27" s="5">
         <f>半導體!$D$16</f>
         <v>0.81972789115646205</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="4" t="s">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="B28" s="6">
+      <c r="B28" s="5">
         <f>食品!$D$12</f>
         <v>0.65073529411764697</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28" s="5">
         <f>食品!$D$13</f>
         <v>0.76445578231292421</v>
       </c>
-      <c r="D28" s="6">
+      <c r="D28" s="5">
         <f>食品!$D$14</f>
         <v>0.79286290787501401</v>
       </c>
-      <c r="E28" s="6">
+      <c r="E28" s="5">
         <f>食品!$D$15</f>
         <v>0.81949152542372872</v>
       </c>
-      <c r="F28" s="6">
+      <c r="F28" s="5">
         <f>食品!$D$16</f>
         <v>0.83728813559322002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="4" t="s">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="B29" s="6">
+      <c r="B29" s="5">
         <f>航運!$D$12</f>
         <v>0.63728813559321995</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29" s="5">
         <f>航運!$D$13</f>
         <v>0.71694915254237257</v>
       </c>
-      <c r="D29" s="6">
+      <c r="D29" s="5">
         <f>航運!$D$14</f>
         <v>0.74915254237288109</v>
       </c>
-      <c r="E29" s="6">
+      <c r="E29" s="5">
         <f>航運!$D$15</f>
         <v>0.76779661016949075</v>
       </c>
-      <c r="F29" s="6">
+      <c r="F29" s="5">
         <f>航運!$D$16</f>
         <v>0.79452054794520499</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="B30" s="6">
+      <c r="B30" s="5">
         <f>通訊!$D$12</f>
         <v>0.63698630136986301</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30" s="5">
         <f>通訊!$D$13</f>
         <v>0.74017180540290328</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="5">
         <f>通訊!$D$14</f>
         <v>0.79661016949152497</v>
       </c>
-      <c r="E30" s="6">
+      <c r="E30" s="5">
         <f>通訊!$D$15</f>
         <v>0.81275569842197504</v>
       </c>
-      <c r="F30" s="6">
+      <c r="F30" s="5">
         <f>通訊!$D$16</f>
         <v>0.86829268292682904</v>
       </c>
@@ -12358,5 +14048,6 @@
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/final report/precisionRate_decision_tree.xlsx
+++ b/final report/precisionRate_decision_tree.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136F0760-CA58-6F48-8827-3940741F0756}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3139B31-4EFD-F84A-B37A-D19AA2769C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18580" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_decision_tree" sheetId="1" r:id="rId1"/>
@@ -23,82 +23,112 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_decision_tree!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_decision_tree!$B$1</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">precisionRate_decision_tree!$I$1</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.100" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.101" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.102" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.103" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.104" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.105" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.106" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.107" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">precisionRate_decision_tree!$B$1</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">precisionRate_decision_tree!$I$1</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">precisionRate_decision_tree!$B$1</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">precisionRate_decision_tree!$I$1</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">precisionRate_decision_tree!$B$1</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">precisionRate_decision_tree!$I$1</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">precisionRate_decision_tree!$B$1</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">半導體!$B$1</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">precisionRate_decision_tree!$I$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">半導體!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.63" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.64" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.65" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.66" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.67" hidden="1">半導體!$I$1</definedName>
+    <definedName name="_xlchart.v1.68" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.69" hidden="1">航運!$B$1</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_decision_tree!$I$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.70" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.71" hidden="1">航運!$C$1</definedName>
+    <definedName name="_xlchart.v1.72" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.73" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.74" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.75" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.76" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.77" hidden="1">航運!$I$1</definedName>
+    <definedName name="_xlchart.v1.78" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.79" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.8" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.80" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.81" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.82" hidden="1">食品!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.83" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.84" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.85" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.86" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.87" hidden="1">食品!$I$1</definedName>
+    <definedName name="_xlchart.v1.88" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.89" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.90" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.91" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.92" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.93" hidden="1">通訊!$G$1</definedName>
+    <definedName name="_xlchart.v1.94" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.95" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.96" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.97" hidden="1">通訊!$I$1</definedName>
+    <definedName name="_xlchart.v1.98" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.99" hidden="1">precisionRate_decision_tree!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1028,7 +1058,7 @@
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.9</cx:f>
+        <cx:f>_xlchart.v1.8</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1118,6 +1148,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E2CE8E75-73E8-BC47-8EED-9E4EE221A653}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1168,6 +1199,147 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
+        <cx:f>_xlchart.v1.40</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.42</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.44</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.46</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.48</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:txData>
+          <cx:v>Decision Tree_半導體</cx:v>
+        </cx:txData>
+      </cx:tx>
+      <cx:txPr>
+        <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr" rtl="0">
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:rPr>
+            <a:t>Decision Tree_半導體</a:t>
+          </a:r>
+        </a:p>
+      </cx:txPr>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{2425A636-2496-3F44-8670-B770B00F600A}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.39</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{69879312-A705-6944-B5CE-66EB7124BAD2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.41</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{BD97F413-3F99-0E4F-9A5B-93F67F4A6387}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{44FBDF37-062D-BA40-B772-EABF78057CB9}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{906DDCCD-A038-194D-A5AC-973697789ADD}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx3.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
         <cx:f>_xlchart.v1.70</cx:f>
       </cx:numDim>
     </cx:data>
@@ -1188,7 +1360,469 @@
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.77</cx:f>
+        <cx:f>_xlchart.v1.78</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Decision Tree_航運</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{C15F0549-8771-7243-9482-AADAE93ACAD3}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{E192A164-E9F9-E448-9ADE-6B85A283B669}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{F3C409C8-D991-9745-8C9D-88873E84F4F4}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{7588DB01-C897-6246-B232-1820B32D5AE5}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{DCBC6020-6639-B049-883D-8B855290EC98}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.40000000000000002"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx4.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.80</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.82</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.84</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.86</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.88</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Decision Tree_食品</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{87286876-71EB-C04C-B9D1-7ED5FDDC7C6B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.79</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{0CBEE8DB-649B-6741-9497-9F0E87463E02}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.81</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{2BE80464-C07B-A64E-B1F2-AC1F69513739}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.83</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{C4C059DD-6C2D-0444-B9E9-7F6AC4185D4B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.85</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{619F7683-252E-D949-9BC5-AD889EAE853D}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx5.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.90</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.92</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.94</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.96</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.98</cx:f>
+      </cx:numDim>
+    </cx:data>
+  </cx:chartData>
+  <cx:chart>
+    <cx:title pos="t" align="ctr" overlay="0">
+      <cx:tx>
+        <cx:rich>
+          <a:bodyPr spcFirstLastPara="1" vertOverflow="ellipsis" horzOverflow="overflow" wrap="square" lIns="0" tIns="0" rIns="0" bIns="0" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr algn="ctr" rtl="0">
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:effectLst/>
+                <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+                <a:ea typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+                <a:cs typeface="Calibri" panose="020F0502020204030204" pitchFamily="34" charset="0"/>
+              </a:rPr>
+              <a:t>Decision Tree_通訊</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+            </a:endParaRPr>
+          </a:p>
+        </cx:rich>
+      </cx:tx>
+    </cx:title>
+    <cx:plotArea>
+      <cx:plotAreaRegion>
+        <cx:series layoutId="boxWhisker" uniqueId="{61BB44CA-E43D-C244-8208-AC01BE0E2857}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.89</cx:f>
+              <cx:v>precision_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="0"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{B3A7733B-4363-0444-B6F5-06405A2BE9E2}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.91</cx:f>
+              <cx:v>precision_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="1"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{6023820C-EF31-B749-9449-42C9BFA30563}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.93</cx:f>
+              <cx:v>recall_0</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="2"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{8796A8D7-E272-4B44-A12F-B2EF0C52145B}">
+          <cx:tx>
+            <cx:txData>
+              <cx:f>_xlchart.v1.95</cx:f>
+              <cx:v>recall_1</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="3"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+        <cx:series layoutId="boxWhisker" uniqueId="{96565786-DD35-ED4B-8AC9-4AEE162AC0A8}">
+          <cx:tx>
+            <cx:txData>
+              <cx:v>accuracy</cx:v>
+            </cx:txData>
+          </cx:tx>
+          <cx:dataId val="4"/>
+          <cx:layoutPr>
+            <cx:visibility meanLine="0" meanMarker="1" nonoutliers="0" outliers="1"/>
+            <cx:statistics quartileMethod="exclusive"/>
+          </cx:layoutPr>
+        </cx:series>
+      </cx:plotAreaRegion>
+      <cx:axis id="0">
+        <cx:catScaling gapWidth="1.5"/>
+        <cx:tickLabels/>
+      </cx:axis>
+      <cx:axis id="1">
+        <cx:valScaling min="0.5"/>
+        <cx:majorGridlines/>
+        <cx:majorTickMarks type="out"/>
+        <cx:tickLabels/>
+      </cx:axis>
+    </cx:plotArea>
+    <cx:legend pos="r" align="ctr" overlay="0"/>
+  </cx:chart>
+</cx:chartSpace>
+</file>
+
+<file path=xl/charts/chartEx6.xml><?xml version="1.0" encoding="utf-8"?>
+<cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
+  <cx:chartData>
+    <cx:data id="0">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.100</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="1">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.102</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="2">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.104</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="3">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.106</cx:f>
+      </cx:numDim>
+    </cx:data>
+    <cx:data id="4">
+      <cx:numDim type="val">
+        <cx:f>_xlchart.v1.107</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1226,7 +1860,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5C753274-E762-C64B-BDBA-D0F685938D60}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:f>_xlchart.v1.99</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1239,7 +1873,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DEE21EC2-221F-464B-8C28-36C4B471F4D9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:f>_xlchart.v1.101</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1252,7 +1886,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{353E2876-755D-FC49-9D27-E7A7F90BCA8C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:f>_xlchart.v1.103</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1265,7 +1899,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E8F5D92A-86D2-DA47-B7D0-4F8FD55C939A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:f>_xlchart.v1.105</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1404,6 +2038,166 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -1920,6 +2714,2066 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat">
+        <a:solidFill>
+          <a:srgbClr val="D9D9D9"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDash"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2518,6 +5372,338 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>450850</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>311150</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AC8B6356-593F-03AF-FFB9-8740AD8FFA37}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4489450" y="4749800"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9434554C-8C5B-A167-E122-08FDC4400171}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4508500" y="4254500"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B0009E6D-77AB-C9C5-89A6-3DEF92974287}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4343400" y="4127500"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>469900</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>63500</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>330200</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>165100</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
+        <xdr:graphicFrame macro="">
+          <xdr:nvGraphicFramePr>
+            <xdr:cNvPr id="2" name="Chart 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DEE1FCD8-E8D2-BF79-7A59-8F19A7F6AE75}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvGraphicFramePr/>
+          </xdr:nvGraphicFramePr>
+          <xdr:xfrm>
+            <a:off x="0" y="0"/>
+            <a:ext cx="0" cy="0"/>
+          </xdr:xfrm>
+          <a:graphic>
+            <a:graphicData uri="http://schemas.microsoft.com/office/drawing/2014/chartex">
+              <cx:chart xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+            </a:graphicData>
+          </a:graphic>
+        </xdr:graphicFrame>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="0" name=""/>
+            <xdr:cNvSpPr>
+              <a:spLocks noTextEdit="1"/>
+            </xdr:cNvSpPr>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3835400" y="4127500"/>
+              <a:ext cx="4572000" cy="2743200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:prstClr val="white"/>
+            </a:solidFill>
+            <a:ln w="1">
+              <a:solidFill>
+                <a:prstClr val="green"/>
+              </a:solidFill>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-US" sz="1100"/>
+                <a:t>This chart isn't available in your version of Excel.
+Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -6532,8 +9718,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" activeCellId="4" sqref="B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8201,6 +11387,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -8209,7 +11396,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -9877,6 +13064,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -9885,7 +13073,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="I1" activeCellId="4" sqref="B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -11553,6 +14741,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -11561,7 +14750,7 @@
   <dimension ref="A1:X17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:X17"/>
+      <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -13229,6 +16418,7 @@
   </sheetData>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -13236,7 +16426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N31" sqref="N31"/>
     </sheetView>
   </sheetViews>

--- a/final report/precisionRate_decision_tree.xlsx
+++ b/final report/precisionRate_decision_tree.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20386"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amanda/Documents/final Project/uki-uki-diasuki/final report/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FILE\中正\大數據與資料分析\uki-uki-diasuki\final report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3139B31-4EFD-F84A-B37A-D19AA2769C8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93780051-9369-4302-AB4F-8040F26EC003}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="18580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="28800" windowHeight="18585" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="precisionRate_decision_tree" sheetId="1" r:id="rId1"/>
@@ -23,112 +23,67 @@
   <definedNames>
     <definedName name="_xlchart.v1.0" hidden="1">precisionRate_decision_tree!$B$1</definedName>
     <definedName name="_xlchart.v1.1" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.10" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.100" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
-    <definedName name="_xlchart.v1.101" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.102" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.103" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.104" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.105" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.106" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.107" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.11" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.12" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.13" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.14" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.15" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.16" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.17" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.18" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.10" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.11" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.12" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.13" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.14" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
+    <definedName name="_xlchart.v1.15" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.16" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.17" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
+    <definedName name="_xlchart.v1.18" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.19" hidden="1">半導體!$B$2:$B$11</definedName>
     <definedName name="_xlchart.v1.2" hidden="1">precisionRate_decision_tree!$C$1</definedName>
-    <definedName name="_xlchart.v1.20" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.22" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.24" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.26" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.27" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.28" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.29" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.20" hidden="1">半導體!$C$1</definedName>
+    <definedName name="_xlchart.v1.21" hidden="1">半導體!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.22" hidden="1">半導體!$G$1</definedName>
+    <definedName name="_xlchart.v1.23" hidden="1">半導體!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.24" hidden="1">半導體!$H$1</definedName>
+    <definedName name="_xlchart.v1.25" hidden="1">半導體!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.26" hidden="1">半導體!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.27" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.28" hidden="1">航運!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.29" hidden="1">航運!$C$1</definedName>
     <definedName name="_xlchart.v1.3" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
-    <definedName name="_xlchart.v1.30" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.31" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.32" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.33" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.34" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.35" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.36" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.37" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.38" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.39" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.30" hidden="1">航運!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.31" hidden="1">航運!$G$1</definedName>
+    <definedName name="_xlchart.v1.32" hidden="1">航運!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.33" hidden="1">航運!$H$1</definedName>
+    <definedName name="_xlchart.v1.34" hidden="1">航運!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.35" hidden="1">航運!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.36" hidden="1">食品!$B$1</definedName>
+    <definedName name="_xlchart.v1.37" hidden="1">食品!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.38" hidden="1">食品!$C$1</definedName>
+    <definedName name="_xlchart.v1.39" hidden="1">食品!$C$2:$C$11</definedName>
     <definedName name="_xlchart.v1.4" hidden="1">precisionRate_decision_tree!$G$1</definedName>
-    <definedName name="_xlchart.v1.40" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.41" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.42" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.43" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.44" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.45" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.46" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.47" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.48" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.49" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.40" hidden="1">食品!$G$1</definedName>
+    <definedName name="_xlchart.v1.41" hidden="1">食品!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.42" hidden="1">食品!$H$1</definedName>
+    <definedName name="_xlchart.v1.43" hidden="1">食品!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.44" hidden="1">食品!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.45" hidden="1">通訊!$B$1</definedName>
+    <definedName name="_xlchart.v1.46" hidden="1">通訊!$B$2:$B$11</definedName>
+    <definedName name="_xlchart.v1.47" hidden="1">通訊!$C$1</definedName>
+    <definedName name="_xlchart.v1.48" hidden="1">通訊!$C$2:$C$11</definedName>
+    <definedName name="_xlchart.v1.49" hidden="1">通訊!$G$1</definedName>
     <definedName name="_xlchart.v1.5" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
-    <definedName name="_xlchart.v1.50" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.51" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.52" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.53" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.54" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.55" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.56" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.57" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.58" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.59" hidden="1">半導體!$B$1</definedName>
+    <definedName name="_xlchart.v1.50" hidden="1">通訊!$G$2:$G$11</definedName>
+    <definedName name="_xlchart.v1.51" hidden="1">通訊!$H$1</definedName>
+    <definedName name="_xlchart.v1.52" hidden="1">通訊!$H$2:$H$11</definedName>
+    <definedName name="_xlchart.v1.53" hidden="1">通訊!$I$2:$I$11</definedName>
+    <definedName name="_xlchart.v1.54" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.55" hidden="1">precisionRate_decision_tree!$B$2:$B$41</definedName>
+    <definedName name="_xlchart.v1.56" hidden="1">precisionRate_decision_tree!$C$1</definedName>
+    <definedName name="_xlchart.v1.57" hidden="1">precisionRate_decision_tree!$C$2:$C$41</definedName>
+    <definedName name="_xlchart.v1.58" hidden="1">precisionRate_decision_tree!$G$1</definedName>
+    <definedName name="_xlchart.v1.59" hidden="1">precisionRate_decision_tree!$G$2:$G$41</definedName>
     <definedName name="_xlchart.v1.6" hidden="1">precisionRate_decision_tree!$H$1</definedName>
-    <definedName name="_xlchart.v1.60" hidden="1">半導體!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.61" hidden="1">半導體!$C$1</definedName>
-    <definedName name="_xlchart.v1.62" hidden="1">半導體!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.63" hidden="1">半導體!$G$1</definedName>
-    <definedName name="_xlchart.v1.64" hidden="1">半導體!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.65" hidden="1">半導體!$H$1</definedName>
-    <definedName name="_xlchart.v1.66" hidden="1">半導體!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.67" hidden="1">半導體!$I$1</definedName>
-    <definedName name="_xlchart.v1.68" hidden="1">半導體!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.69" hidden="1">航運!$B$1</definedName>
+    <definedName name="_xlchart.v1.60" hidden="1">precisionRate_decision_tree!$H$1</definedName>
+    <definedName name="_xlchart.v1.61" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
+    <definedName name="_xlchart.v1.62" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
     <definedName name="_xlchart.v1.7" hidden="1">precisionRate_decision_tree!$H$2:$H$41</definedName>
-    <definedName name="_xlchart.v1.70" hidden="1">航運!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.71" hidden="1">航運!$C$1</definedName>
-    <definedName name="_xlchart.v1.72" hidden="1">航運!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.73" hidden="1">航運!$G$1</definedName>
-    <definedName name="_xlchart.v1.74" hidden="1">航運!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.75" hidden="1">航運!$H$1</definedName>
-    <definedName name="_xlchart.v1.76" hidden="1">航運!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.77" hidden="1">航運!$I$1</definedName>
-    <definedName name="_xlchart.v1.78" hidden="1">航運!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.79" hidden="1">食品!$B$1</definedName>
     <definedName name="_xlchart.v1.8" hidden="1">precisionRate_decision_tree!$I$2:$I$41</definedName>
-    <definedName name="_xlchart.v1.80" hidden="1">食品!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.81" hidden="1">食品!$C$1</definedName>
-    <definedName name="_xlchart.v1.82" hidden="1">食品!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.83" hidden="1">食品!$G$1</definedName>
-    <definedName name="_xlchart.v1.84" hidden="1">食品!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.85" hidden="1">食品!$H$1</definedName>
-    <definedName name="_xlchart.v1.86" hidden="1">食品!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.87" hidden="1">食品!$I$1</definedName>
-    <definedName name="_xlchart.v1.88" hidden="1">食品!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.89" hidden="1">通訊!$B$1</definedName>
-    <definedName name="_xlchart.v1.9" hidden="1">半導體!$B$1</definedName>
-    <definedName name="_xlchart.v1.90" hidden="1">通訊!$B$2:$B$11</definedName>
-    <definedName name="_xlchart.v1.91" hidden="1">通訊!$C$1</definedName>
-    <definedName name="_xlchart.v1.92" hidden="1">通訊!$C$2:$C$11</definedName>
-    <definedName name="_xlchart.v1.93" hidden="1">通訊!$G$1</definedName>
-    <definedName name="_xlchart.v1.94" hidden="1">通訊!$G$2:$G$11</definedName>
-    <definedName name="_xlchart.v1.95" hidden="1">通訊!$H$1</definedName>
-    <definedName name="_xlchart.v1.96" hidden="1">通訊!$H$2:$H$11</definedName>
-    <definedName name="_xlchart.v1.97" hidden="1">通訊!$I$1</definedName>
-    <definedName name="_xlchart.v1.98" hidden="1">通訊!$I$2:$I$11</definedName>
-    <definedName name="_xlchart.v1.99" hidden="1">precisionRate_decision_tree!$B$1</definedName>
+    <definedName name="_xlchart.v1.9" hidden="1">precisionRate_decision_tree!$B$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -138,8 +93,8 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -317,7 +272,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -325,7 +280,7 @@
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -333,7 +288,7 @@
     <font>
       <sz val="18"/>
       <color theme="3"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -342,7 +297,7 @@
       <b/>
       <sz val="15"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -351,7 +306,7 @@
       <b/>
       <sz val="13"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -360,7 +315,7 @@
       <b/>
       <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -368,7 +323,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -376,7 +331,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -384,7 +339,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF9C5700"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -392,7 +347,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -401,7 +356,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -410,7 +365,7 @@
       <b/>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -418,7 +373,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -427,7 +382,7 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -435,7 +390,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -444,7 +399,7 @@
       <i/>
       <sz val="12"/>
       <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -453,7 +408,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -461,14 +416,14 @@
     <font>
       <sz val="12"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Calibri"/>
+      <name val="新細明體"/>
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
@@ -476,7 +431,7 @@
     <font>
       <sz val="12"/>
       <color rgb="FF1E1E1E"/>
-      <name val="Calibri Light"/>
+      <name val="新細明體"/>
       <family val="1"/>
       <charset val="136"/>
       <scheme val="major"/>
@@ -977,48 +932,48 @@
     </xf>
   </cellXfs>
   <cellStyles count="42">
-    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
-    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
-    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
-    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
-    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
-    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
-    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
-    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
-    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
-    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
-    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
-    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
-    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
-    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
-    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
-    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
-    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
-    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
-    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
-    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
-    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
-    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
-    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
-    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
-    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
-    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
-    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
-    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
-    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
-    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
-    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
-    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
-    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - 輔色6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - 輔色6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - 輔色6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="中等" xfId="8" builtinId="28" customBuiltin="1"/>
+    <cellStyle name="合計" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="好" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="計算方式" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="連結的儲存格" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="備註" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="說明文字" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="輔色1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="輔色2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="輔色3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="輔色4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="輔色5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="輔色6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="標題" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="標題 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="標題 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="標題 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="標題 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="輸入" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="輸出" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="檢查儲存格" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="壞" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="警告文字" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1033,32 +988,695 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-TW"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-TW"/>
+              <a:t>Decision Tree</a:t>
+            </a:r>
+            <a:endParaRPr lang="zh-TW" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$A$27</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>半導體</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>工作表5!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表5!$B$27:$F$27</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.70847457627118604</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76550501556554773</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79286867289288554</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.80423728813559303</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.81972789115646205</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C2C6-40A8-B99C-9E7AE5627874}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$A$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>食品</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>工作表5!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表5!$B$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.65073529411764697</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.76445578231292421</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79286290787501401</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81949152542372872</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.83728813559322002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C2C6-40A8-B99C-9E7AE5627874}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$A$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>航運</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>工作表5!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表5!$B$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.63728813559321995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.71694915254237257</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.74915254237288109</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.76779661016949075</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.79452054794520499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-C2C6-40A8-B99C-9E7AE5627874}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>工作表5!$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>通訊</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:strRef>
+              <c:f>工作表5!$B$26:$F$26</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>q0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>q1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>q3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>工作表5!$B$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.63698630136986301</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.74017180540290328</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.79661016949152497</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.81275569842197504</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.86829268292682904</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-C2C6-40A8-B99C-9E7AE5627874}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="447454176"/>
+        <c:axId val="390894176"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="447454176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="390894176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="390894176"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="0.88000000000000012"/>
+          <c:min val="0.62000000000000011"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-TW"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="447454176"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-TW"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-TW"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/chartEx1.xml><?xml version="1.0" encoding="utf-8"?>
 <cx:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex">
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.1</cx:f>
+        <cx:f>_xlchart.v1.10</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.3</cx:f>
+        <cx:f>_xlchart.v1.12</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.5</cx:f>
+        <cx:f>_xlchart.v1.14</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.7</cx:f>
+        <cx:f>_xlchart.v1.16</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.8</cx:f>
+        <cx:f>_xlchart.v1.17</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1096,7 +1714,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5C753274-E762-C64B-BDBA-D0F685938D60}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.0</cx:f>
+              <cx:f>_xlchart.v1.9</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1109,7 +1727,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DEE21EC2-221F-464B-8C28-36C4B471F4D9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.2</cx:f>
+              <cx:f>_xlchart.v1.11</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1122,7 +1740,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{353E2876-755D-FC49-9D27-E7A7F90BCA8C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.4</cx:f>
+              <cx:f>_xlchart.v1.13</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1135,7 +1753,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E8F5D92A-86D2-DA47-B7D0-4F8FD55C939A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.6</cx:f>
+              <cx:f>_xlchart.v1.15</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1160,7 +1778,7 @@
         </cx:series>
       </cx:plotAreaRegion>
       <cx:axis id="0">
-        <cx:catScaling gapWidth="1.5"/>
+        <cx:catScaling gapWidth="0.100000001"/>
         <cx:tickLabels/>
       </cx:axis>
       <cx:axis id="1">
@@ -1199,27 +1817,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.40</cx:f>
+        <cx:f>_xlchart.v1.19</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.42</cx:f>
+        <cx:f>_xlchart.v1.21</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.44</cx:f>
+        <cx:f>_xlchart.v1.23</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.46</cx:f>
+        <cx:f>_xlchart.v1.25</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.48</cx:f>
+        <cx:f>_xlchart.v1.26</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1257,7 +1875,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2425A636-2496-3F44-8670-B770B00F600A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.39</cx:f>
+              <cx:f>_xlchart.v1.18</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1270,7 +1888,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{69879312-A705-6944-B5CE-66EB7124BAD2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.41</cx:f>
+              <cx:f>_xlchart.v1.20</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1283,7 +1901,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{BD97F413-3F99-0E4F-9A5B-93F67F4A6387}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.43</cx:f>
+              <cx:f>_xlchart.v1.22</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1296,7 +1914,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{44FBDF37-062D-BA40-B772-EABF78057CB9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.45</cx:f>
+              <cx:f>_xlchart.v1.24</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1309,6 +1927,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{906DDCCD-A038-194D-A5AC-973697789ADD}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1340,27 +1959,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.70</cx:f>
+        <cx:f>_xlchart.v1.28</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.72</cx:f>
+        <cx:f>_xlchart.v1.30</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.74</cx:f>
+        <cx:f>_xlchart.v1.32</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.76</cx:f>
+        <cx:f>_xlchart.v1.34</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.78</cx:f>
+        <cx:f>_xlchart.v1.35</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1411,7 +2030,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C15F0549-8771-7243-9482-AADAE93ACAD3}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.69</cx:f>
+              <cx:f>_xlchart.v1.27</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1424,7 +2043,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E192A164-E9F9-E448-9ADE-6B85A283B669}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.71</cx:f>
+              <cx:f>_xlchart.v1.29</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1437,7 +2056,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{F3C409C8-D991-9745-8C9D-88873E84F4F4}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.73</cx:f>
+              <cx:f>_xlchart.v1.31</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1450,7 +2069,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{7588DB01-C897-6246-B232-1820B32D5AE5}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.75</cx:f>
+              <cx:f>_xlchart.v1.33</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1463,6 +2082,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DCBC6020-6639-B049-883D-8B855290EC98}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1494,27 +2114,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.80</cx:f>
+        <cx:f>_xlchart.v1.37</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.82</cx:f>
+        <cx:f>_xlchart.v1.39</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.84</cx:f>
+        <cx:f>_xlchart.v1.41</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.86</cx:f>
+        <cx:f>_xlchart.v1.43</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.88</cx:f>
+        <cx:f>_xlchart.v1.44</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1565,7 +2185,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{87286876-71EB-C04C-B9D1-7ED5FDDC7C6B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.79</cx:f>
+              <cx:f>_xlchart.v1.36</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1578,7 +2198,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{0CBEE8DB-649B-6741-9497-9F0E87463E02}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.81</cx:f>
+              <cx:f>_xlchart.v1.38</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1591,7 +2211,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{2BE80464-C07B-A64E-B1F2-AC1F69513739}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.83</cx:f>
+              <cx:f>_xlchart.v1.40</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1604,7 +2224,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{C4C059DD-6C2D-0444-B9E9-7F6AC4185D4B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.85</cx:f>
+              <cx:f>_xlchart.v1.42</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1617,6 +2237,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{619F7683-252E-D949-9BC5-AD889EAE853D}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1648,27 +2269,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.90</cx:f>
+        <cx:f>_xlchart.v1.46</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.92</cx:f>
+        <cx:f>_xlchart.v1.48</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.94</cx:f>
+        <cx:f>_xlchart.v1.50</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.96</cx:f>
+        <cx:f>_xlchart.v1.52</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.98</cx:f>
+        <cx:f>_xlchart.v1.53</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1719,7 +2340,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{61BB44CA-E43D-C244-8208-AC01BE0E2857}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.89</cx:f>
+              <cx:f>_xlchart.v1.45</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1732,7 +2353,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{B3A7733B-4363-0444-B6F5-06405A2BE9E2}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.91</cx:f>
+              <cx:f>_xlchart.v1.47</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1745,7 +2366,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{6023820C-EF31-B749-9449-42C9BFA30563}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.93</cx:f>
+              <cx:f>_xlchart.v1.49</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1758,7 +2379,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{8796A8D7-E272-4B44-A12F-B2EF0C52145B}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.95</cx:f>
+              <cx:f>_xlchart.v1.51</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1771,6 +2392,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{96565786-DD35-ED4B-8AC9-4AEE162AC0A8}">
           <cx:tx>
             <cx:txData>
+              <cx:f/>
               <cx:v>accuracy</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1802,27 +2424,27 @@
   <cx:chartData>
     <cx:data id="0">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.100</cx:f>
+        <cx:f>_xlchart.v1.55</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="1">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.102</cx:f>
+        <cx:f>_xlchart.v1.57</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="2">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.104</cx:f>
+        <cx:f>_xlchart.v1.59</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="3">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.106</cx:f>
+        <cx:f>_xlchart.v1.61</cx:f>
       </cx:numDim>
     </cx:data>
     <cx:data id="4">
       <cx:numDim type="val">
-        <cx:f>_xlchart.v1.107</cx:f>
+        <cx:f>_xlchart.v1.62</cx:f>
       </cx:numDim>
     </cx:data>
   </cx:chartData>
@@ -1860,7 +2482,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{5C753274-E762-C64B-BDBA-D0F685938D60}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.99</cx:f>
+              <cx:f>_xlchart.v1.54</cx:f>
               <cx:v>precision_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1873,7 +2495,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{DEE21EC2-221F-464B-8C28-36C4B471F4D9}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.101</cx:f>
+              <cx:f>_xlchart.v1.56</cx:f>
               <cx:v>precision_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1886,7 +2508,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{353E2876-755D-FC49-9D27-E7A7F90BCA8C}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.103</cx:f>
+              <cx:f>_xlchart.v1.58</cx:f>
               <cx:v>recall_0</cx:v>
             </cx:txData>
           </cx:tx>
@@ -1899,7 +2521,7 @@
         <cx:series layoutId="boxWhisker" uniqueId="{E8F5D92A-86D2-DA47-B7D0-4F8FD55C939A}">
           <cx:tx>
             <cx:txData>
-              <cx:f>_xlchart.v1.105</cx:f>
+              <cx:f>_xlchart.v1.60</cx:f>
               <cx:v>recall_1</cx:v>
             </cx:txData>
           </cx:tx>
@@ -2198,6 +2820,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="406">
   <cs:axisTitle>
@@ -5288,20 +5950,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>654050</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>177800</xdr:rowOff>
+      <xdr:colOff>130175</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" Requires="cx1">
@@ -5337,8 +6515,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="6711950" y="3022600"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="6216650" y="9950450"/>
+              <a:ext cx="4594225" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5357,9 +6535,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5420,8 +6598,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4489450" y="4749800"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4508500" y="4895850"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5440,9 +6618,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5503,8 +6681,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4508500" y="4254500"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4527550" y="4381500"/>
+              <a:ext cx="4594225" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5523,9 +6701,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5586,8 +6764,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="4343400" y="4127500"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="4362450" y="4254500"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5606,9 +6784,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5669,8 +6847,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3835400" y="4127500"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="3851275" y="4254500"/>
+              <a:ext cx="4594225" cy="2825750"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5689,9 +6867,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5752,8 +6930,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="5664200" y="2362200"/>
-              <a:ext cx="4572000" cy="2743200"/>
+              <a:off x="5689600" y="2432050"/>
+              <a:ext cx="4594225" cy="2832100"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -5772,9 +6950,9 @@
             <a:lstStyle/>
             <a:p>
               <a:r>
-                <a:rPr lang="en-US" sz="1100"/>
-                <a:t>This chart isn't available in your version of Excel.
-Editing this shape or saving this workbook into a different file format will permanently break the chart.</a:t>
+                <a:rPr lang="zh-TW" altLang="en-US" sz="1100"/>
+                <a:t>此圖表在您的 Excel 版本中無法使用。
+若編輯此圖案或將此活頁簿儲存為不同格式，將永久破壞圖表。</a:t>
               </a:r>
             </a:p>
           </xdr:txBody>
@@ -5783,11 +6961,47 @@
     </mc:AlternateContent>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>119062</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>138112</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="圖表 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FCC95641-4D21-412A-BDF0-2F41B1DD0ABB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -6085,13 +7299,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" activeCellId="4" sqref="B1:B41 C1:C41 G1:G41 H1:H41 I1:I41"/>
+    <sheetView topLeftCell="D41" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="T54" sqref="T54"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6165,7 +7379,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1210</v>
       </c>
@@ -6239,7 +7453,7 @@
         <v>4.3213695542064903E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1231</v>
       </c>
@@ -6313,7 +7527,7 @@
         <v>4.2630512459735703E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2344</v>
       </c>
@@ -6387,7 +7601,7 @@
         <v>2.6622218572849101E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2449</v>
       </c>
@@ -6461,7 +7675,7 @@
         <v>4.9425890916318403E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2603</v>
       </c>
@@ -6535,7 +7749,7 @@
         <v>1.9463728058547899E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>2633</v>
       </c>
@@ -6609,7 +7823,7 @@
         <v>2.5547653082930801E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3596</v>
       </c>
@@ -6683,7 +7897,7 @@
         <v>2.5177796305629399E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>1215</v>
       </c>
@@ -6757,7 +7971,7 @@
         <v>2.9868220948970101E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>1232</v>
       </c>
@@ -6831,7 +8045,7 @@
         <v>3.74463628146375E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2345</v>
       </c>
@@ -6905,7 +8119,7 @@
         <v>3.0174491416901001E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>2454</v>
       </c>
@@ -6979,7 +8193,7 @@
         <v>2.91712838882278E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>2607</v>
       </c>
@@ -7053,7 +8267,7 @@
         <v>2.2525618356817E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>2634</v>
       </c>
@@ -7127,7 +8341,7 @@
         <v>7.7943762793259097E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>3682</v>
       </c>
@@ -7201,7 +8415,7 @@
         <v>2.4909966006688398E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>1216</v>
       </c>
@@ -7275,7 +8489,7 @@
         <v>3.3912419467748499E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1434</v>
       </c>
@@ -7349,7 +8563,7 @@
         <v>3.3453882424994898E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>2379</v>
       </c>
@@ -7423,7 +8637,7 @@
         <v>4.7521409266043098E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>2455</v>
       </c>
@@ -7497,7 +8711,7 @@
         <v>3.4104658463923201E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2609</v>
       </c>
@@ -7571,7 +8785,7 @@
         <v>3.75800502303806E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2637</v>
       </c>
@@ -7645,7 +8859,7 @@
         <v>2.0443076384060999E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>4904</v>
       </c>
@@ -7719,7 +8933,7 @@
         <v>8.1713483930065195E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1218</v>
       </c>
@@ -7793,7 +9007,7 @@
         <v>1.45891801634997E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>1702</v>
       </c>
@@ -7867,7 +9081,7 @@
         <v>2.7946360394450399E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2408</v>
       </c>
@@ -7941,7 +9155,7 @@
         <v>3.5249937914108402E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2459</v>
       </c>
@@ -8015,7 +9229,7 @@
         <v>2.8399404302479701E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2610</v>
       </c>
@@ -8089,7 +9303,7 @@
         <v>1.60744824254705E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3034</v>
       </c>
@@ -8163,7 +9377,7 @@
         <v>3.8355281693401098E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>5388</v>
       </c>
@@ -8237,7 +9451,7 @@
         <v>2.8947767751073501E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1227</v>
       </c>
@@ -8311,7 +9525,7 @@
         <v>4.0418522011836398E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2330</v>
       </c>
@@ -8385,7 +9599,7 @@
         <v>2.8128069045988E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>2412</v>
       </c>
@@ -8459,7 +9673,7 @@
         <v>3.8504594351938599E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>2468</v>
       </c>
@@ -8533,7 +9747,7 @@
         <v>2.9820512146534299E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>2615</v>
       </c>
@@ -8607,7 +9821,7 @@
         <v>2.0557858424537601E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>3035</v>
       </c>
@@ -8681,7 +9895,7 @@
         <v>1.4745018757446399E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1229</v>
       </c>
@@ -8755,7 +9969,7 @@
         <v>3.6679341190238898E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>2337</v>
       </c>
@@ -8829,7 +10043,7 @@
         <v>2.5478971882719501E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2439</v>
       </c>
@@ -8903,7 +10117,7 @@
         <v>3.0637881528908999E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2498</v>
       </c>
@@ -8977,7 +10191,7 @@
         <v>6.95078016408546E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>2618</v>
       </c>
@@ -9051,7 +10265,7 @@
         <v>2.3885785444078701E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>3045</v>
       </c>
@@ -9125,7 +10339,7 @@
         <v>3.0269305532019199E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>24</v>
       </c>
@@ -9222,7 +10436,7 @@
         <v>1.45891801634997E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>25</v>
       </c>
@@ -9319,7 +10533,7 @@
         <v>2.5403677988446977E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>26</v>
       </c>
@@ -9416,7 +10630,7 @@
         <v>3.0021356182935551E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>27</v>
       </c>
@@ -9513,7 +10727,7 @@
         <v>3.7773858096135725E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>28</v>
       </c>
@@ -9610,7 +10824,7 @@
         <v>8.1713483930065195E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>29</v>
       </c>
@@ -9718,13 +10932,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:X17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="I1" activeCellId="4" sqref="B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_decision_tree!A$1</f>
         <v>StockName</v>
@@ -9822,7 +11036,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_decision_tree!A$31</f>
         <v>2330</v>
@@ -9920,7 +11134,7 @@
         <v>2.8128069045988E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_decision_tree!A$12</f>
         <v>2454</v>
@@ -10018,7 +11232,7 @@
         <v>2.91712838882278E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_decision_tree!A$28</f>
         <v>3034</v>
@@ -10116,7 +11330,7 @@
         <v>3.8355281693401098E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_decision_tree!A$18</f>
         <v>2379</v>
@@ -10214,7 +11428,7 @@
         <v>4.7521409266043098E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_decision_tree!A$25</f>
         <v>2408</v>
@@ -10312,7 +11526,7 @@
         <v>3.5249937914108402E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_decision_tree!A$4</f>
         <v>2344</v>
@@ -10410,7 +11624,7 @@
         <v>2.6622218572849101E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_decision_tree!A$37</f>
         <v>2337</v>
@@ -10508,7 +11722,7 @@
         <v>2.5478971882719501E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_decision_tree!A$35</f>
         <v>3035</v>
@@ -10606,7 +11820,7 @@
         <v>1.4745018757446399E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_decision_tree!A$5</f>
         <v>2449</v>
@@ -10704,7 +11918,7 @@
         <v>4.9425890916318403E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_decision_tree!A$33</f>
         <v>2468</v>
@@ -10802,7 +12016,7 @@
         <v>2.9820512146534299E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -10899,7 +12113,7 @@
         <v>1.4745018757446399E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -10996,7 +12210,7 @@
         <v>2.6998681191133828E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -11093,7 +12307,7 @@
         <v>2.9495898017381048E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -11190,7 +12404,7 @@
         <v>3.7578945748577924E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -11287,7 +12501,7 @@
         <v>4.9425890916318403E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -11399,9 +12613,9 @@
       <selection activeCell="Q33" sqref="Q33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_decision_tree!A$1</f>
         <v>StockName</v>
@@ -11499,7 +12713,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_decision_tree!A$16</f>
         <v>1216</v>
@@ -11597,7 +12811,7 @@
         <v>3.3912419467748499E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_decision_tree!A$36</f>
         <v>1229</v>
@@ -11695,7 +12909,7 @@
         <v>3.6679341190238898E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_decision_tree!A$17</f>
         <v>1434</v>
@@ -11793,7 +13007,7 @@
         <v>3.3453882424994898E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_decision_tree!A$30</f>
         <v>1227</v>
@@ -11891,7 +13105,7 @@
         <v>4.0418522011836398E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_decision_tree!A$2</f>
         <v>1210</v>
@@ -11989,7 +13203,7 @@
         <v>4.3213695542064903E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_decision_tree!A$10</f>
         <v>1232</v>
@@ -12087,7 +13301,7 @@
         <v>3.74463628146375E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_decision_tree!A$9</f>
         <v>1215</v>
@@ -12185,7 +13399,7 @@
         <v>2.9868220948970101E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_decision_tree!A$3</f>
         <v>1231</v>
@@ -12283,7 +13497,7 @@
         <v>4.2630512459735703E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_decision_tree!A$23</f>
         <v>1218</v>
@@ -12381,7 +13595,7 @@
         <v>1.45891801634997E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_decision_tree!A$24</f>
         <v>1702</v>
@@ -12479,7 +13693,7 @@
         <v>2.7946360394450399E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -12576,7 +13790,7 @@
         <v>1.45891801634997E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -12673,7 +13887,7 @@
         <v>3.07646363179763E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -12770,7 +13984,7 @@
         <v>3.5295880328993695E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -12867,7 +14081,7 @@
         <v>3.9675482212536674E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -12964,7 +14178,7 @@
         <v>4.3213695542064903E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -13076,9 +14290,9 @@
       <selection activeCell="I1" activeCellId="4" sqref="B1:B11 C1:C11 G1:G11 H1:H11 I1:I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_decision_tree!A$1</f>
         <v>StockName</v>
@@ -13176,7 +14390,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_decision_tree!A$6</f>
         <v>2603</v>
@@ -13274,7 +14488,7 @@
         <v>1.9463728058547899E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_decision_tree!A$20</f>
         <v>2609</v>
@@ -13372,7 +14586,7 @@
         <v>3.75800502303806E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_decision_tree!A$34</f>
         <v>2615</v>
@@ -13470,7 +14684,7 @@
         <v>2.0557858424537601E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_decision_tree!A$40</f>
         <v>2618</v>
@@ -13568,7 +14782,7 @@
         <v>2.3885785444078701E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_decision_tree!A$27</f>
         <v>2610</v>
@@ -13666,7 +14880,7 @@
         <v>1.60744824254705E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_decision_tree!A$21</f>
         <v>2637</v>
@@ -13764,7 +14978,7 @@
         <v>2.0443076384060999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_decision_tree!A$7</f>
         <v>2633</v>
@@ -13862,7 +15076,7 @@
         <v>2.5547653082930801E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_decision_tree!A$26</f>
         <v>2459</v>
@@ -13960,7 +15174,7 @@
         <v>2.8399404302479701E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_decision_tree!A$13</f>
         <v>2607</v>
@@ -14058,7 +15272,7 @@
         <v>2.2525618356817E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_decision_tree!A$14</f>
         <v>2634</v>
@@ -14156,7 +15370,7 @@
         <v>7.7943762793259097E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -14253,7 +15467,7 @@
         <v>1.60744824254705E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -14350,7 +15564,7 @@
         <v>2.047177189418015E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -14447,7 +15661,7 @@
         <v>2.320570190044785E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -14544,7 +15758,7 @@
         <v>2.7686466497592474E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -14641,7 +15855,7 @@
         <v>7.7943762793259097E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -14753,9 +15967,9 @@
       <selection activeCell="Q34" sqref="Q34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
         <f>precisionRate_decision_tree!A$1</f>
         <v>StockName</v>
@@ -14853,7 +16067,7 @@
         <v>10F-Score-std</v>
       </c>
     </row>
-    <row r="2" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2">
         <f>precisionRate_decision_tree!A$32</f>
         <v>2412</v>
@@ -14951,7 +16165,7 @@
         <v>3.8504594351938599E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3">
         <f>precisionRate_decision_tree!A$41</f>
         <v>3045</v>
@@ -15049,7 +16263,7 @@
         <v>3.0269305532019199E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>precisionRate_decision_tree!A$22</f>
         <v>4904</v>
@@ -15147,7 +16361,7 @@
         <v>8.1713483930065195E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5">
         <f>precisionRate_decision_tree!A$11</f>
         <v>2345</v>
@@ -15245,7 +16459,7 @@
         <v>3.0174491416901001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6">
         <f>precisionRate_decision_tree!A$39</f>
         <v>2498</v>
@@ -15343,7 +16557,7 @@
         <v>6.95078016408546E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7">
         <f>precisionRate_decision_tree!A$8</f>
         <v>3596</v>
@@ -15441,7 +16655,7 @@
         <v>2.5177796305629399E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8">
         <f>precisionRate_decision_tree!A$15</f>
         <v>3682</v>
@@ -15539,7 +16753,7 @@
         <v>2.4909966006688398E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9">
         <f>precisionRate_decision_tree!A$29</f>
         <v>5388</v>
@@ -15637,7 +16851,7 @@
         <v>2.8947767751073501E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10">
         <f>precisionRate_decision_tree!A$19</f>
         <v>2455</v>
@@ -15735,7 +16949,7 @@
         <v>3.4104658463923201E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
         <f>precisionRate_decision_tree!A$38</f>
         <v>2439</v>
@@ -15833,7 +17047,7 @@
         <v>3.0637881528908999E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>24</v>
       </c>
@@ -15930,7 +17144,7 @@
         <v>2.4909966006688398E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -16027,7 +17241,7 @@
         <v>2.9254448667530377E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -16124,7 +17338,7 @@
         <v>3.0453593530464097E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>27</v>
       </c>
@@ -16221,7 +17435,7 @@
         <v>3.7404610379934748E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>28</v>
       </c>
@@ -16318,7 +17532,7 @@
         <v>8.1713483930065195E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:24" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>30</v>
       </c>
@@ -16426,13 +17640,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:O30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N31" sqref="N31"/>
+    <sheetView tabSelected="1" topLeftCell="C20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="9" t="s">
         <v>31</v>
       </c>
@@ -16461,7 +17675,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
         <v>38</v>
@@ -16506,7 +17720,7 @@
         <v>0.28732235996718802</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -16558,7 +17772,7 @@
         <v>0.48055500232320975</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>42</v>
       </c>
@@ -16610,7 +17824,7 @@
         <v>0.54831351688845209</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
@@ -16662,7 +17876,7 @@
         <v>0.59312765402518153</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>44</v>
       </c>
@@ -16714,7 +17928,7 @@
         <v>0.72929346118649996</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>45</v>
       </c>
@@ -16726,7 +17940,7 @@
       <c r="J7" s="8"/>
       <c r="K7" s="8"/>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="3"/>
       <c r="B8" s="3" t="s">
         <v>38</v>
@@ -16744,7 +17958,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>41</v>
       </c>
@@ -16769,7 +17983,7 @@
         <v>0.87222222222222201</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>42</v>
       </c>
@@ -16794,7 +18008,7 @@
         <v>0.94557823129251695</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>43</v>
       </c>
@@ -16819,7 +18033,7 @@
         <v>0.82706766917293195</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>44</v>
       </c>
@@ -16844,7 +18058,7 @@
         <v>0.86585365853658502</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>34</v>
       </c>
@@ -16854,7 +18068,7 @@
       <c r="E13" s="10"/>
       <c r="F13" s="10"/>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="3" t="s">
         <v>38</v>
@@ -16872,7 +18086,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>41</v>
       </c>
@@ -16897,7 +18111,7 @@
         <v>0.79856115107913594</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>42</v>
       </c>
@@ -16922,7 +18136,7 @@
         <v>0.91666666666666596</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
@@ -16947,7 +18161,7 @@
         <v>0.78030303030303005</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>44</v>
       </c>
@@ -16972,7 +18186,7 @@
         <v>0.90677966101694896</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>35</v>
       </c>
@@ -16982,7 +18196,7 @@
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="3" t="s">
         <v>38</v>
@@ -17000,7 +18214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>41</v>
       </c>
@@ -17025,7 +18239,7 @@
         <v>0.89839572192513295</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>42</v>
       </c>
@@ -17050,7 +18264,7 @@
         <v>0.86440677966101698</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>43</v>
       </c>
@@ -17075,7 +18289,7 @@
         <v>0.83750000000000002</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>44</v>
       </c>
@@ -17100,7 +18314,7 @@
         <v>0.84905660377358405</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>36</v>
       </c>
@@ -17110,7 +18324,7 @@
       <c r="E25" s="10"/>
       <c r="F25" s="10"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="3"/>
       <c r="B26" s="3" t="s">
         <v>38</v>
@@ -17128,7 +18342,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>41</v>
       </c>
@@ -17153,7 +18367,7 @@
         <v>0.81972789115646205</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>42</v>
       </c>
@@ -17178,7 +18392,7 @@
         <v>0.83728813559322002</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>43</v>
       </c>
@@ -17203,7 +18417,7 @@
         <v>0.79452054794520499</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>44</v>
       </c>
